--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25-content/website/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A05B4-4343-6A44-BF68-1FF0375D2F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821FE2D-AF47-4940-A2D9-D761558D4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="1940" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30000" yWindow="2980" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,6 @@
     <t>ae</t>
   </si>
   <si>
-    <t>[welcome](https://mrne222-sp25-content.github.io/slides/01-welcome/01-welcome.html)</t>
-  </si>
-  <si>
     <t>meet the toolkit</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>ae-02 &lt;br&gt; lab-01</t>
   </si>
   <si>
-    <t>lab-01 &lt;br&gt; ae-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>lab-02 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -327,6 +321,12 @@
   </si>
   <si>
     <t>lab-08 &lt;br&gt; ae</t>
+  </si>
+  <si>
+    <t>[welcome](https://mrne222-sp25.github.io/slides/01-welcome/01-welcome.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>lab-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -770,7 +770,7 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
         <v>68</v>
@@ -781,7 +781,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
+        <v>77</v>
+      </c>
+      <c r="F54" t="s">
         <v>78</v>
-      </c>
-      <c r="F54" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1181,10 +1181,10 @@
         <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,10 +1192,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A821FE2D-AF47-4940-A2D9-D761558D4982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D9775-741A-BA44-BD7F-DC01B7161A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30000" yWindow="2980" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30580" yWindow="3000" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724D9775-741A-BA44-BD7F-DC01B7161A54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7876B4-DB1D-A64E-BB3E-E4D522AFF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30580" yWindow="3000" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="38120" yWindow="2540" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,18 +242,12 @@
     <t>lab-08</t>
   </si>
   <si>
-    <t>ae-03</t>
-  </si>
-  <si>
     <t>Apr 28-May2</t>
   </si>
   <si>
     <t>ae</t>
   </si>
   <si>
-    <t>meet the toolkit</t>
-  </si>
-  <si>
     <t>data visualization</t>
   </si>
   <si>
@@ -296,9 +290,6 @@
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
-    <t>ae-02 &lt;br&gt; lab-01</t>
-  </si>
-  <si>
     <t>lab-02 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -327,6 +318,15 @@
   </si>
   <si>
     <t>lab-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
+  </si>
+  <si>
+    <t>[meet the toolkit](https://mrne222-sp25.github.io/slides/02-toolkit/02-toolkit.html#/title-slide)</t>
+  </si>
+  <si>
+    <t>lab-01</t>
+  </si>
+  <si>
+    <t>ae-02 &lt;br&gt; ae-03</t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -770,10 +770,10 @@
         <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>66</v>
       </c>
       <c r="F33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,7 +985,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,7 +993,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1009,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1080,7 +1080,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,7 +1096,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1125,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,7 +1141,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1170,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,13 +1178,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,10 +1192,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7876B4-DB1D-A64E-BB3E-E4D522AFF4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1108D-AFF7-724B-9C9B-B5C6270799AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38120" yWindow="2540" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -284,9 +284,6 @@
     <t>project presentation</t>
   </si>
   <si>
-    <t>SLIDES</t>
-  </si>
-  <si>
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
@@ -320,13 +317,16 @@
     <t>lab-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
   </si>
   <si>
-    <t>[meet the toolkit](https://mrne222-sp25.github.io/slides/02-toolkit/02-toolkit.html#/title-slide)</t>
-  </si>
-  <si>
     <t>lab-01</t>
   </si>
   <si>
     <t>ae-02 &lt;br&gt; ae-03</t>
+  </si>
+  <si>
+    <t>[meet the toolkit](https://mrne222-sp25.github.io/slides/02-toolkit/02-toolkit.html#/title-slide) &lt;br&gt; [lab-01 instructions](https://mrne222-sp25.github.io/slides/lab-01/lab-01-hello-r.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIDES </t>
   </si>
 </sst>
 </file>
@@ -704,7 +704,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +728,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -745,7 +745,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -773,7 +773,7 @@
         <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,7 +781,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -807,7 +807,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -833,7 +833,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +859,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +885,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +911,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +937,7 @@
         <v>65</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +953,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE1108D-AFF7-724B-9C9B-B5C6270799AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68E0B-6A42-4F48-9DCB-91D2CAE3F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38120" yWindow="2540" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="28800" yWindow="5240" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>WEEK</t>
   </si>
@@ -230,9 +230,6 @@
     <t>ae-01</t>
   </si>
   <si>
-    <t>[R4DS Ch 1](https://r4ds.had.co.nz/introduction.html) &lt;br&gt; [R4DS Ch 3](https://r4ds.had.co.nz/data-visualisation.html)</t>
-  </si>
-  <si>
     <t>F Feb 28</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
-    <t>lab-02 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-03 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -314,19 +308,28 @@
     <t>[welcome](https://mrne222-sp25.github.io/slides/01-welcome/01-welcome.html#/title-slide)</t>
   </si>
   <si>
-    <t>lab-01 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>lab-01</t>
   </si>
   <si>
-    <t>ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>[meet the toolkit](https://mrne222-sp25.github.io/slides/02-toolkit/02-toolkit.html#/title-slide) &lt;br&gt; [lab-01 instructions](https://mrne222-sp25.github.io/slides/lab-01/lab-01-hello-r.html)</t>
   </si>
   <si>
     <t xml:space="preserve">SLIDES </t>
+  </si>
+  <si>
+    <t>[R4DS Ch 1](https://r4ds.hadley.nz/data-visualize) &lt;br&gt; [R4DS Ch2](https://r4ds.hadley.nz/workflow-basics)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ae-02 </t>
+  </si>
+  <si>
+    <t>ae-03</t>
+  </si>
+  <si>
+    <t>lab-02 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
+  </si>
+  <si>
+    <t>GitHub - catch up</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -745,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -756,24 +759,18 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -781,15 +778,24 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -801,13 +807,16 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="E8" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -833,7 +842,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -859,7 +868,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -885,7 +894,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,7 +920,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,10 +943,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -953,7 +962,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,10 +972,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,7 +986,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -985,7 +994,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,7 +1002,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1009,7 +1018,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1022,7 +1031,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,7 +1047,7 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1051,7 +1060,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +1076,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1080,7 +1089,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,7 +1105,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,7 +1118,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1134,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" t="s">
         <v>75</v>
-      </c>
-      <c r="F54" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1141,7 +1150,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1166,7 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1170,7 +1179,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1178,13 +1187,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1192,10 +1201,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA68E0B-6A42-4F48-9DCB-91D2CAE3F140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F08F6-6073-E84E-AEE0-1956AA11539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="5240" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
   <si>
     <t>WEEK</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>GitHub - catch up</t>
+  </si>
+  <si>
+    <t>finish lab-01</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -772,6 +775,9 @@
       <c r="D4" t="s">
         <v>97</v>
       </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F08F6-6073-E84E-AEE0-1956AA11539A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979289B8-B9CA-B946-9E05-B87461BD3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="5240" windowWidth="27220" windowHeight="16260" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="28900" yWindow="500" windowWidth="33880" windowHeight="19380" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>WEEK</t>
   </si>
@@ -245,9 +245,6 @@
     <t>ae</t>
   </si>
   <si>
-    <t>data visualization</t>
-  </si>
-  <si>
     <t>spring Break - no class</t>
   </si>
   <si>
@@ -333,6 +330,39 @@
   </si>
   <si>
     <t>finish lab-01</t>
+  </si>
+  <si>
+    <t>[data visualization](https://mrne222-sp25.github.io/slides/03-data-viz/03-data-viz#/title-slide)</t>
+  </si>
+  <si>
+    <t>lab-02</t>
+  </si>
+  <si>
+    <t>numeric and categorical data</t>
+  </si>
+  <si>
+    <t>data transformation</t>
+  </si>
+  <si>
+    <t>single data frames</t>
+  </si>
+  <si>
+    <t>multiple data frames</t>
+  </si>
+  <si>
+    <t>lab-03</t>
+  </si>
+  <si>
+    <t>ae-04</t>
+  </si>
+  <si>
+    <t>ae-05</t>
+  </si>
+  <si>
+    <t>tidying data</t>
+  </si>
+  <si>
+    <t>[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) &lt;br&gt; [R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
   </si>
 </sst>
 </file>
@@ -710,31 +740,31 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.1640625" customWidth="1"/>
+    <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="74.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -751,7 +781,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -762,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -773,10 +803,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
         <v>97</v>
-      </c>
-      <c r="E4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -784,7 +814,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -795,26 +825,35 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
         <v>93</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="D7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -822,33 +861,54 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="D12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -874,7 +934,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -900,7 +960,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -926,7 +986,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -952,7 +1012,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -968,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +1052,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1000,7 +1060,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1008,7 +1068,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1024,7 +1084,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,7 +1097,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,7 +1126,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1082,7 +1142,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,10 +1200,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F54" t="s">
         <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1172,7 +1232,7 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,7 +1245,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,10 +1256,10 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1207,10 +1267,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979289B8-B9CA-B946-9E05-B87461BD3C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFDC12B-01DA-3247-B5CB-C5E7F9F2B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28900" yWindow="500" windowWidth="33880" windowHeight="19380" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>WEEK</t>
   </si>
@@ -363,6 +363,9 @@
   </si>
   <si>
     <t>[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) &lt;br&gt; [R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
+  </si>
+  <si>
+    <t>[quiz-01](https://forms.gle/Det5jxaYVC5tH17M9)</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,7 +753,7 @@
     <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="74.83203125" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -833,6 +836,9 @@
       <c r="E6" t="s">
         <v>93</v>
       </c>
+      <c r="F6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFDC12B-01DA-3247-B5CB-C5E7F9F2B7EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C53A8E-0969-034A-8FFC-DD7FCB3F36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28900" yWindow="500" windowWidth="33880" windowHeight="19380" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="28920" yWindow="4160" windowWidth="27560" windowHeight="17220" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,15 +317,9 @@
     <t>[R4DS Ch 1](https://r4ds.hadley.nz/data-visualize) &lt;br&gt; [R4DS Ch2](https://r4ds.hadley.nz/workflow-basics)</t>
   </si>
   <si>
-    <t xml:space="preserve">ae-02 </t>
-  </si>
-  <si>
     <t>ae-03</t>
   </si>
   <si>
-    <t>lab-02 &lt;br&gt; ae-02 &lt;br&gt; ae-03</t>
-  </si>
-  <si>
     <t>GitHub - catch up</t>
   </si>
   <si>
@@ -335,15 +329,6 @@
     <t>[data visualization](https://mrne222-sp25.github.io/slides/03-data-viz/03-data-viz#/title-slide)</t>
   </si>
   <si>
-    <t>lab-02</t>
-  </si>
-  <si>
-    <t>numeric and categorical data</t>
-  </si>
-  <si>
-    <t>data transformation</t>
-  </si>
-  <si>
     <t>single data frames</t>
   </si>
   <si>
@@ -366,6 +351,21 @@
   </si>
   <si>
     <t>[quiz-01](https://forms.gle/Det5jxaYVC5tH17M9)</t>
+  </si>
+  <si>
+    <t>ae-02 &lt;br&gt; lab-02</t>
+  </si>
+  <si>
+    <t>quiz-02</t>
+  </si>
+  <si>
+    <t>data viz practice</t>
+  </si>
+  <si>
+    <t>ae-02 &lt;br&gt; ae-03 &lt;br&gt; lab-02</t>
+  </si>
+  <si>
+    <t>[ggplotting](https://mrne222-sp25.github.io/slides/04-ggplotting/04-ggplotting#/title-slide)</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -806,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,13 +831,10 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -845,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -856,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -867,7 +864,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -878,13 +875,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -903,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C53A8E-0969-034A-8FFC-DD7FCB3F36C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1F11B-15C4-E64F-8B85-100C49A42BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28920" yWindow="4160" windowWidth="27560" windowHeight="17220" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -317,9 +317,6 @@
     <t>[R4DS Ch 1](https://r4ds.hadley.nz/data-visualize) &lt;br&gt; [R4DS Ch2](https://r4ds.hadley.nz/workflow-basics)</t>
   </si>
   <si>
-    <t>ae-03</t>
-  </si>
-  <si>
     <t>GitHub - catch up</t>
   </si>
   <si>
@@ -359,13 +356,16 @@
     <t>quiz-02</t>
   </si>
   <si>
-    <t>data viz practice</t>
-  </si>
-  <si>
     <t>ae-02 &lt;br&gt; ae-03 &lt;br&gt; lab-02</t>
   </si>
   <si>
     <t>[ggplotting](https://mrne222-sp25.github.io/slides/04-ggplotting/04-ggplotting#/title-slide)</t>
+  </si>
+  <si>
+    <t>no slides - data viz practice</t>
+  </si>
+  <si>
+    <t>finish lab-02 &lt;br&gt; ae-03</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -752,7 +752,7 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="74.83203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -806,10 +806,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" t="s">
         <v>94</v>
-      </c>
-      <c r="E4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,10 +831,10 @@
         <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +842,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -875,16 +875,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,10 +892,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -903,10 +903,10 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB1F11B-15C4-E64F-8B85-100C49A42BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2052511-5CB1-464A-B55C-2783E267492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -362,10 +362,10 @@
     <t>[ggplotting](https://mrne222-sp25.github.io/slides/04-ggplotting/04-ggplotting#/title-slide)</t>
   </si>
   <si>
-    <t>no slides - data viz practice</t>
-  </si>
-  <si>
     <t>finish lab-02 &lt;br&gt; ae-03</t>
+  </si>
+  <si>
+    <t>no slides - data viz practice &lt;br&gt; [quiz-01 responses](https://docs.google.com/spreadsheets/d/1yxyg4TQ98EU0eJCUUr6GFbEyLui6OJG_NlVF4sf7hZc/edit?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2052511-5CB1-464A-B55C-2783E267492D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D754D9-F224-F94E-A16D-69C48FFEE501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="28800" yWindow="520" windowWidth="35200" windowHeight="19960" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
   <si>
     <t>WEEK</t>
   </si>
@@ -281,9 +281,6 @@
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
-    <t>lab-03 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-04 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -326,12 +323,6 @@
     <t>[data visualization](https://mrne222-sp25.github.io/slides/03-data-viz/03-data-viz#/title-slide)</t>
   </si>
   <si>
-    <t>single data frames</t>
-  </si>
-  <si>
-    <t>multiple data frames</t>
-  </si>
-  <si>
     <t>lab-03</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>ae-05</t>
   </si>
   <si>
-    <t>tidying data</t>
-  </si>
-  <si>
     <t>[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) &lt;br&gt; [R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
   </si>
   <si>
@@ -366,6 +354,57 @@
   </si>
   <si>
     <t>no slides - data viz practice &lt;br&gt; [quiz-01 responses](https://docs.google.com/spreadsheets/d/1yxyg4TQ98EU0eJCUUr6GFbEyLui6OJG_NlVF4sf7hZc/edit?usp=sharing)</t>
+  </si>
+  <si>
+    <t>importing and recoding</t>
+  </si>
+  <si>
+    <t>lab-04</t>
+  </si>
+  <si>
+    <t>effective data viz</t>
+  </si>
+  <si>
+    <t>exploratory data analysis</t>
+  </si>
+  <si>
+    <t>functions</t>
+  </si>
+  <si>
+    <t>github conflicts  old lab-o4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
+  </si>
+  <si>
+    <t>data joins</t>
+  </si>
+  <si>
+    <t>data types and classes</t>
+  </si>
+  <si>
+    <t>iteration</t>
+  </si>
+  <si>
+    <t>[data transformation](https://mrne222-sp25.github.io/slides/05-data-transformation/05-data-transformation#/title-slide)</t>
+  </si>
+  <si>
+    <t>[data tidying](https://mrne222-sp25.github.io/slides/06-data-tidying/06-data-tidying#/title-slide)</t>
+  </si>
+  <si>
+    <t>lab-03 &lt;br&gt; ae-04 &lt;br&gt; ae-05</t>
+  </si>
+  <si>
+    <t>quiz-03</t>
+  </si>
+  <si>
+    <t>[R4DS Ch 16](https://r4ds.hadley.nz/factors) &lt;br&gt; [R4DS Ch 17](https://r4ds.hadley.nz/datetimes)</t>
+  </si>
+  <si>
+    <t>[IMS  Ch 4](https://openintro-ims.netlify.app/explore-categorical) &lt;br&gt; [IMS  Ch 5](https://openintro-ims.netlify.app/explore-numerical) &lt;br&gt; [IMS  Ch 6](https://openintro-ims.netlify.app/explore-applications)</t>
+  </si>
+  <si>
+    <t>quiz-04</t>
   </si>
 </sst>
 </file>
@@ -743,7 +782,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -751,7 +790,7 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="74.83203125" customWidth="1"/>
+    <col min="4" max="4" width="101.33203125" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
     <col min="6" max="6" width="41.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -767,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -784,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -795,10 +834,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -806,10 +845,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
         <v>93</v>
-      </c>
-      <c r="E4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -817,7 +856,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -828,13 +867,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -842,10 +881,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -853,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -864,7 +903,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -875,16 +914,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" t="s">
-        <v>99</v>
-      </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,21 +931,24 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="D12" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -914,47 +956,77 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
+      <c r="D15" t="s">
+        <v>106</v>
+      </c>
+      <c r="E15" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>15</v>
       </c>
+      <c r="D16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -966,7 +1038,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,11 +1048,17 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
@@ -992,7 +1070,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1007,6 +1085,9 @@
       <c r="B27" t="s">
         <v>23</v>
       </c>
+      <c r="D27" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
@@ -1018,7 +1099,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,7 +1184,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1132,7 +1213,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D754D9-F224-F94E-A16D-69C48FFEE501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15062CEC-ADDA-D646-A2C4-7E2E81A1A009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="520" windowWidth="35200" windowHeight="19960" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,9 +341,6 @@
     <t>ae-02 &lt;br&gt; lab-02</t>
   </si>
   <si>
-    <t>quiz-02</t>
-  </si>
-  <si>
     <t>ae-02 &lt;br&gt; ae-03 &lt;br&gt; lab-02</t>
   </si>
   <si>
@@ -405,6 +402,9 @@
   </si>
   <si>
     <t>quiz-04</t>
+  </si>
+  <si>
+    <t>[quiz-02](https://forms.gle/oTFpfAYb1YTX73pKA)</t>
   </si>
 </sst>
 </file>
@@ -782,7 +782,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
         <v>100</v>
@@ -892,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -903,7 +903,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -917,13 +917,13 @@
         <v>98</v>
       </c>
       <c r="D10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>95</v>
@@ -942,10 +942,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" t="s">
         <v>112</v>
-      </c>
-      <c r="D12" t="s">
-        <v>113</v>
       </c>
       <c r="E12" t="s">
         <v>97</v>
@@ -956,7 +956,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -967,13 +967,13 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,10 +981,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" t="s">
         <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +992,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,13 +1011,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
         <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1086,7 +1086,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15062CEC-ADDA-D646-A2C4-7E2E81A1A009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DA9BF-C560-7A42-88DD-F01BF1C69D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
   <si>
     <t>WEEK</t>
   </si>
@@ -329,9 +329,6 @@
     <t>ae-04</t>
   </si>
   <si>
-    <t>ae-05</t>
-  </si>
-  <si>
     <t>[R4DS Ch 3](https://r4ds.hadley.nz/data-transform) &lt;br&gt; [R4DS Ch 5](https://r4ds.hadley.nz/data-tidy)</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>[data tidying](https://mrne222-sp25.github.io/slides/06-data-tidying/06-data-tidying#/title-slide)</t>
   </si>
   <si>
-    <t>lab-03 &lt;br&gt; ae-04 &lt;br&gt; ae-05</t>
-  </si>
-  <si>
     <t>quiz-03</t>
   </si>
   <si>
@@ -405,6 +399,21 @@
   </si>
   <si>
     <t>[quiz-02](https://forms.gle/oTFpfAYb1YTX73pKA)</t>
+  </si>
+  <si>
+    <t>lab-03 &lt;br&gt; ae-04 &lt;br&gt; ae-05 (optional)</t>
+  </si>
+  <si>
+    <t>lab-03 and/or &lt;br&gt; ae-05</t>
+  </si>
+  <si>
+    <t>work on lab-03 and/or ae-05</t>
+  </si>
+  <si>
+    <t>ae-06</t>
+  </si>
+  <si>
+    <t>ae-07</t>
   </si>
 </sst>
 </file>
@@ -782,7 +791,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -873,7 +882,7 @@
         <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -881,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -892,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -903,7 +912,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -914,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
         <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
         <v>95</v>
@@ -942,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,7 +965,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -967,13 +976,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,10 +993,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" t="s">
         <v>105</v>
-      </c>
-      <c r="E15" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +1004,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1011,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1025,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1086,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449DA9BF-C560-7A42-88DD-F01BF1C69D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BA48E-6B87-8D4B-8E1A-63026FFAB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -371,9 +371,6 @@
     <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
   </si>
   <si>
-    <t>data joins</t>
-  </si>
-  <si>
     <t>data types and classes</t>
   </si>
   <si>
@@ -414,6 +411,9 @@
   </si>
   <si>
     <t>ae-07</t>
+  </si>
+  <si>
+    <t>[data joins](https://enst222.github.io/slides/08-multi-df/08-multi-df.html#1)</t>
   </si>
 </sst>
 </file>
@@ -791,7 +791,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +926,13 @@
         <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E10" t="s">
         <v>96</v>
       </c>
       <c r="F10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,7 +940,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
         <v>95</v>
@@ -954,10 +954,10 @@
         <v>110</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -976,16 +976,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,10 +1004,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1026,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" t="s">
         <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645BA48E-6B87-8D4B-8E1A-63026FFAB7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185AFC6-4FBF-8143-AB2B-82EFC7FED3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
-    <t>lab-04 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-05 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -383,9 +380,6 @@
     <t>[data tidying](https://mrne222-sp25.github.io/slides/06-data-tidying/06-data-tidying#/title-slide)</t>
   </si>
   <si>
-    <t>quiz-03</t>
-  </si>
-  <si>
     <t>[R4DS Ch 16](https://r4ds.hadley.nz/factors) &lt;br&gt; [R4DS Ch 17](https://r4ds.hadley.nz/datetimes)</t>
   </si>
   <si>
@@ -414,6 +408,12 @@
   </si>
   <si>
     <t>[data joins](https://enst222.github.io/slides/08-multi-df/08-multi-df.html#1)</t>
+  </si>
+  <si>
+    <t>[quiz-03](https://forms.gle/kXL7xCEeJkYeSzvg8)</t>
+  </si>
+  <si>
+    <t>lab-04 &lt;br&gt; ae-05 &lt;br&gt; ae-…</t>
   </si>
 </sst>
 </file>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -832,7 +832,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -843,10 +843,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,10 +854,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
         <v>92</v>
-      </c>
-      <c r="E4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -865,7 +865,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -876,13 +876,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,10 +890,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -901,10 +901,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -923,16 +923,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,10 +940,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -951,13 +951,13 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -976,16 +976,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -993,10 +993,10 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
         <v>104</v>
-      </c>
-      <c r="E15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1004,10 +1004,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,7 +1015,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1026,13 +1026,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1040,7 +1040,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1064,7 +1064,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1072,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,7 +1085,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,7 +1101,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,7 +1199,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1228,7 +1228,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7185AFC6-4FBF-8143-AB2B-82EFC7FED3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8BA12-2CF3-144E-9818-2DB7148829EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="31260" yWindow="1540" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
   <si>
     <t>WEEK</t>
   </si>
@@ -353,18 +353,9 @@
     <t>lab-04</t>
   </si>
   <si>
-    <t>effective data viz</t>
-  </si>
-  <si>
-    <t>exploratory data analysis</t>
-  </si>
-  <si>
     <t>functions</t>
   </si>
   <si>
-    <t>github conflicts  old lab-o4</t>
-  </si>
-  <si>
     <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
   </si>
   <si>
@@ -398,9 +389,6 @@
     <t>lab-03 and/or &lt;br&gt; ae-05</t>
   </si>
   <si>
-    <t>work on lab-03 and/or ae-05</t>
-  </si>
-  <si>
     <t>ae-06</t>
   </si>
   <si>
@@ -414,6 +402,12 @@
   </si>
   <si>
     <t>lab-04 &lt;br&gt; ae-05 &lt;br&gt; ae-…</t>
+  </si>
+  <si>
+    <t>github conflicts  lab</t>
+  </si>
+  <si>
+    <t>effective data viz and exploratory data analysis</t>
   </si>
 </sst>
 </file>
@@ -790,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,13 +920,13 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,7 +934,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>94</v>
@@ -951,13 +945,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -965,7 +956,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -976,25 +967,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
       <c r="E15" t="s">
         <v>104</v>
       </c>
@@ -1004,10 +992,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,7 +1003,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1026,13 +1014,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1040,7 +1028,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1064,7 +1052,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1072,7 +1060,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1101,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B8BA12-2CF3-144E-9818-2DB7148829EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C7CD8-0236-2E4E-A119-4C11E9A73CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31260" yWindow="1540" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
   <si>
     <t>WEEK</t>
   </si>
@@ -359,9 +359,6 @@
     <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
   </si>
   <si>
-    <t>data types and classes</t>
-  </si>
-  <si>
     <t>iteration</t>
   </si>
   <si>
@@ -401,13 +398,19 @@
     <t>[quiz-03](https://forms.gle/kXL7xCEeJkYeSzvg8)</t>
   </si>
   <si>
-    <t>lab-04 &lt;br&gt; ae-05 &lt;br&gt; ae-…</t>
-  </si>
-  <si>
     <t>github conflicts  lab</t>
   </si>
   <si>
     <t>effective data viz and exploratory data analysis</t>
+  </si>
+  <si>
+    <t>ae-08 &lt;br&gt; ae-09</t>
+  </si>
+  <si>
+    <t>[data types](https://mrne222-sp25.github.io/slides/09-data-types/09-data-types.html#1) &lt;br&gt;  [data classes](https://mrne222-sp25.github.io/slides/10-data-classes/10-data-classes.html#1)</t>
+  </si>
+  <si>
+    <t>lab-04 &lt;br&gt; ae-05 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
   </si>
 </sst>
 </file>
@@ -784,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,13 +923,13 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -934,7 +937,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>94</v>
@@ -948,7 +951,7 @@
         <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -956,7 +959,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -967,16 +970,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F14" t="s">
         <v>119</v>
-      </c>
-      <c r="E14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F14" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,10 +995,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1003,7 +1006,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1014,13 +1017,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
         <v>103</v>
       </c>
+      <c r="E18" t="s">
+        <v>122</v>
+      </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,7 +1034,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1095,7 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708C7CD8-0236-2E4E-A119-4C11E9A73CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035AF1B-A282-5148-A315-082DD7488E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="31100" yWindow="1800" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
   <si>
     <t>WEEK</t>
   </si>
@@ -347,9 +347,6 @@
     <t>no slides - data viz practice &lt;br&gt; [quiz-01 responses](https://docs.google.com/spreadsheets/d/1yxyg4TQ98EU0eJCUUr6GFbEyLui6OJG_NlVF4sf7hZc/edit?usp=sharing)</t>
   </si>
   <si>
-    <t>importing and recoding</t>
-  </si>
-  <si>
     <t>lab-04</t>
   </si>
   <si>
@@ -401,16 +398,34 @@
     <t>github conflicts  lab</t>
   </si>
   <si>
-    <t>effective data viz and exploratory data analysis</t>
-  </si>
-  <si>
     <t>ae-08 &lt;br&gt; ae-09</t>
   </si>
   <si>
-    <t>[data types](https://mrne222-sp25.github.io/slides/09-data-types/09-data-types.html#1) &lt;br&gt;  [data classes](https://mrne222-sp25.github.io/slides/10-data-classes/10-data-classes.html#1)</t>
-  </si>
-  <si>
     <t>lab-04 &lt;br&gt; ae-05 &lt;br&gt; ae-06 &lt;br&gt; ae-07</t>
+  </si>
+  <si>
+    <t>[data types](https://mrne222-sp25.github.io/slides/08-data-types/08-data-types.html#1) &lt;br&gt;  [data classes](https://mrne222-sp25.github.io/slides/09-data-classes/09-data-classes.html#1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[data import](https://mrne222-sp25.github.io/slides/10-data-import/10-data-import.html#1) </t>
+  </si>
+  <si>
+    <t>[data recode](https://mrne222-sp25.github.io/slides/11-data-recode/11-data-recode.html#1)</t>
+  </si>
+  <si>
+    <t>lab-05</t>
+  </si>
+  <si>
+    <t>lab-06</t>
+  </si>
+  <si>
+    <t>lab-07</t>
+  </si>
+  <si>
+    <t>[R4DS Ch 25](https://r4ds.hadley.nz/functions)</t>
+  </si>
+  <si>
+    <t>[R4DS Ch 26](https://r4ds.hadley.nz/iteration)</t>
   </si>
 </sst>
 </file>
@@ -787,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,13 +938,13 @@
         <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" t="s">
         <v>94</v>
@@ -948,10 +963,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,7 +974,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -970,16 +985,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" t="s">
         <v>118</v>
-      </c>
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -987,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1006,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1017,30 +1032,33 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" t="s">
+        <v>123</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
         <v>111</v>
-      </c>
-      <c r="D18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" t="s">
-        <v>121</v>
+      <c r="E19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
@@ -1050,29 +1068,35 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="C22" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" t="s">
-        <v>107</v>
+      <c r="E23" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="D24" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1082,12 +1106,18 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,12 +1125,18 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>24</v>
+      </c>
+      <c r="D28" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3035AF1B-A282-5148-A315-082DD7488E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6803F-1D1A-3D41-B30F-7A929F812F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31100" yWindow="1800" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,9 +371,6 @@
     <t>[IMS  Ch 4](https://openintro-ims.netlify.app/explore-categorical) &lt;br&gt; [IMS  Ch 5](https://openintro-ims.netlify.app/explore-numerical) &lt;br&gt; [IMS  Ch 6](https://openintro-ims.netlify.app/explore-applications)</t>
   </si>
   <si>
-    <t>quiz-04</t>
-  </si>
-  <si>
     <t>[quiz-02](https://forms.gle/oTFpfAYb1YTX73pKA)</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   </si>
   <si>
     <t>[R4DS Ch 26](https://r4ds.hadley.nz/iteration)</t>
+  </si>
+  <si>
+    <t>[quiz-04](https://docs.google.com/forms/d/e/1FAIpQLSd1WZguARASYA1jstRiWM7dwx8SRwmKC42zVzy_f2o8qzueeQ/viewform?usp=header)</t>
   </si>
 </sst>
 </file>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -944,7 +944,7 @@
         <v>95</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>105</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,7 +974,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -988,13 +988,13 @@
         <v>109</v>
       </c>
       <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F14" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1010,10 +1010,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1021,7 +1021,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1035,13 +1035,13 @@
         <v>110</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F18" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,7 +1049,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1057,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1076,7 +1076,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
         <v>104</v>
@@ -1087,7 +1087,7 @@
         <v>20</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1125,10 +1125,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD6803F-1D1A-3D41-B30F-7A929F812F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5D515-44E3-844B-B946-50C0DD291817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30820" yWindow="1460" windowWidth="31740" windowHeight="19500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>WEEK</t>
   </si>
@@ -281,12 +281,6 @@
     <t>project proposal work &lt;br&gt; individual meetings</t>
   </si>
   <si>
-    <t>lab-05 &lt;br&gt; ae</t>
-  </si>
-  <si>
-    <t>lab-06 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-07 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -350,9 +344,6 @@
     <t>lab-04</t>
   </si>
   <si>
-    <t>functions</t>
-  </si>
-  <si>
     <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
   </si>
   <si>
@@ -426,6 +417,33 @@
   </si>
   <si>
     <t>[quiz-04](https://docs.google.com/forms/d/e/1FAIpQLSd1WZguARASYA1jstRiWM7dwx8SRwmKC42zVzy_f2o8qzueeQ/viewform?usp=header)</t>
+  </si>
+  <si>
+    <t>[effective data viz](https://enst222.github.io/slides/14-effective-dataviz/14-effective-dataviz.html#1)</t>
+  </si>
+  <si>
+    <t>snow day - complete lab-05 on your own</t>
+  </si>
+  <si>
+    <t>data import - cont.</t>
+  </si>
+  <si>
+    <t>lab-05 &lt;br&gt; ae-08 &lt;br&gt; ae-09</t>
+  </si>
+  <si>
+    <t>ae-10</t>
+  </si>
+  <si>
+    <t>lab-06 &lt;br&gt; ae-10</t>
+  </si>
+  <si>
+    <t>[doing data science](https://mrne222-sp25.github.io/slides/14-doing-data-science/14-doing-data-science.html#1)</t>
+  </si>
+  <si>
+    <t>[functions - intro](https://mrne222-sp25.github.io/slides/13-functions-intro/13-functions-intro.html#1)</t>
+  </si>
+  <si>
+    <t>functions - details</t>
   </si>
 </sst>
 </file>
@@ -802,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -827,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -844,7 +862,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -855,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -866,10 +884,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,7 +895,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -888,13 +906,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -902,10 +920,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -913,10 +931,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -924,7 +942,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -935,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -952,10 +970,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -963,10 +981,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -974,7 +992,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -985,16 +1003,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
         <v>114</v>
-      </c>
-      <c r="F14" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1002,7 +1020,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1010,10 +1028,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1021,7 +1039,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1032,24 +1050,30 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>17</v>
       </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>121</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,7 +1081,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1065,7 +1089,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1076,18 +1100,21 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,7 +1122,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>104</v>
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,7 +1133,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1114,10 +1144,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1125,10 +1155,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,7 +1166,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1144,7 +1174,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1229,7 +1259,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,7 +1288,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED5D515-44E3-844B-B946-50C0DD291817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD83AA9-B9E1-A04C-B94B-3947BAFF4785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30820" yWindow="1460" windowWidth="31740" windowHeight="19500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
   <si>
     <t>WEEK</t>
   </si>
@@ -278,9 +278,6 @@
     <t>project presentation</t>
   </si>
   <si>
-    <t>project proposal work &lt;br&gt; individual meetings</t>
-  </si>
-  <si>
     <t>lab-07 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -347,9 +344,6 @@
     <t xml:space="preserve">[R4DS Ch 19](https://r4ds.hadley.nz/joins) </t>
   </si>
   <si>
-    <t>iteration</t>
-  </si>
-  <si>
     <t>[data transformation](https://mrne222-sp25.github.io/slides/05-data-transformation/05-data-transformation#/title-slide)</t>
   </si>
   <si>
@@ -398,9 +392,6 @@
     <t xml:space="preserve">[data import](https://mrne222-sp25.github.io/slides/10-data-import/10-data-import.html#1) </t>
   </si>
   <si>
-    <t>[data recode](https://mrne222-sp25.github.io/slides/11-data-recode/11-data-recode.html#1)</t>
-  </si>
-  <si>
     <t>lab-05</t>
   </si>
   <si>
@@ -434,9 +425,6 @@
     <t>ae-10</t>
   </si>
   <si>
-    <t>lab-06 &lt;br&gt; ae-10</t>
-  </si>
-  <si>
     <t>[doing data science](https://mrne222-sp25.github.io/slides/14-doing-data-science/14-doing-data-science.html#1)</t>
   </si>
   <si>
@@ -444,6 +432,33 @@
   </si>
   <si>
     <t>functions - details</t>
+  </si>
+  <si>
+    <t>effective data viz - cont.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project proposal work </t>
+  </si>
+  <si>
+    <t>learning reflection</t>
+  </si>
+  <si>
+    <t>learning reflection &lt;br&gt; ae</t>
+  </si>
+  <si>
+    <t>lab-06 &lt;br&gt; update and reflect on &lt;br&gt;  ae-06-09 and lab-04</t>
+  </si>
+  <si>
+    <t>iteration - intro</t>
+  </si>
+  <si>
+    <t>iteration - details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[data recode](https://mrne222-sp25.github.io/slides/11-data-recode/11-data-recode.html#1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">review ae-06-09 and &lt;br&gt; lab-04 solutions </t>
   </si>
 </sst>
 </file>
@@ -820,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -845,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -862,7 +877,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -873,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -884,10 +899,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
         <v>89</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -895,7 +910,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -906,13 +921,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -920,10 +935,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -931,10 +946,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -942,7 +957,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -953,16 +968,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -970,10 +985,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -981,10 +996,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +1007,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1003,16 +1018,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1020,7 +1035,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1028,10 +1043,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1039,7 +1054,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1050,16 +1065,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,13 +1082,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,7 +1096,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1089,7 +1104,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1100,10 +1115,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1111,10 +1126,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1122,10 +1137,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1133,7 +1148,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1144,10 +1159,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="E26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1155,10 +1173,10 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1166,7 +1184,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>103</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1174,7 +1192,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1184,26 +1202,32 @@
       <c r="B30" t="s">
         <v>25</v>
       </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
+      <c r="D32" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1259,7 +1283,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1288,7 +1312,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1405,6 +1429,9 @@
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>61</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
       </c>
       <c r="F60" t="s">
         <v>77</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD83AA9-B9E1-A04C-B94B-3947BAFF4785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E2092-A4FC-404C-8C46-511E122DCB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
   <si>
     <t>WEEK</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t xml:space="preserve">review ae-06-09 and &lt;br&gt; lab-04 solutions </t>
+  </si>
+  <si>
+    <t>quiz-05</t>
   </si>
 </sst>
 </file>
@@ -835,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1107,15 +1110,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>19</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D22" t="s">
         <v>132</v>
@@ -1132,15 +1132,21 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="C24" s="1" t="s">
+        <v>121</v>
+      </c>
       <c r="D24" t="s">
         <v>139</v>
       </c>
       <c r="E24" t="s">
         <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E2092-A4FC-404C-8C46-511E122DCB46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32271E6-280A-F245-A3F6-EA7329B28EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,12 +1132,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D24" t="s">
         <v>139</v>
@@ -1165,7 +1162,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" t="s">
         <v>130</v>
@@ -1201,12 +1198,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="D30" t="s">
         <v>137</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32271E6-280A-F245-A3F6-EA7329B28EC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6AA0B-9CDA-1F42-A3C0-5080A1C9365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -838,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1142,9 +1142,6 @@
       <c r="E24" t="s">
         <v>140</v>
       </c>
-      <c r="F24" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
@@ -1169,6 +1166,9 @@
       </c>
       <c r="E26" t="s">
         <v>128</v>
+      </c>
+      <c r="F26" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D6AA0B-9CDA-1F42-A3C0-5080A1C9365C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30AC63-EA3E-8748-91D0-1B4F515EA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30380" yWindow="1020" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
   <si>
     <t>WEEK</t>
   </si>
@@ -377,9 +377,6 @@
     <t>[quiz-03](https://forms.gle/kXL7xCEeJkYeSzvg8)</t>
   </si>
   <si>
-    <t>github conflicts  lab</t>
-  </si>
-  <si>
     <t>ae-08 &lt;br&gt; ae-09</t>
   </si>
   <si>
@@ -462,6 +459,12 @@
   </si>
   <si>
     <t>quiz-05</t>
+  </si>
+  <si>
+    <t>[sign up for project group](https://docs.google.com/spreadsheets/d/1T8ynu2KodlkYa7eTG1EsnggARHN7tVt2iQFKIVgDodo/edit?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[git conflicts instructions](https://mrne222-sp25.github.io/slides/lab-07/lab-07-merge-conflicts.html) &lt;br&gt; [project guidelines](https://mrne222-sp25.github.io/website/03-project.html)</t>
   </si>
 </sst>
 </file>
@@ -838,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1046,7 +1049,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
         <v>110</v>
@@ -1057,7 +1060,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1071,13 +1074,13 @@
         <v>105</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1085,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
         <v>124</v>
-      </c>
-      <c r="E19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1099,7 +1102,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,7 +1110,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1118,7 +1121,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1126,10 +1129,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1137,10 +1140,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
         <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1148,7 +1151,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1159,16 +1162,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,10 +1179,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="F27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1187,7 +1193,7 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1206,10 +1212,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1217,7 +1223,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,7 +1231,7 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,7 +1239,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1437,7 +1443,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F60" t="s">
         <v>77</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD30AC63-EA3E-8748-91D0-1B4F515EA556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1A3E1-02EC-CC4F-B817-D5D60DC696B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30380" yWindow="1020" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -458,13 +458,13 @@
     <t xml:space="preserve">review ae-06-09 and &lt;br&gt; lab-04 solutions </t>
   </si>
   <si>
-    <t>quiz-05</t>
-  </si>
-  <si>
     <t>[sign up for project group](https://docs.google.com/spreadsheets/d/1T8ynu2KodlkYa7eTG1EsnggARHN7tVt2iQFKIVgDodo/edit?usp=sharing)</t>
   </si>
   <si>
     <t>[git conflicts instructions](https://mrne222-sp25.github.io/slides/lab-07/lab-07-merge-conflicts.html) &lt;br&gt; [project guidelines](https://mrne222-sp25.github.io/website/03-project.html)</t>
+  </si>
+  <si>
+    <t>[quiz-05](https://docs.google.com/forms/d/e/1FAIpQLSeXqMNqSDiALwJd3kAqZTK7maTnEeolkusLfbMKs0I68b8gtg/viewform?usp=header)</t>
   </si>
 </sst>
 </file>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1171,7 @@
         <v>127</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,13 +1179,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E27" t="s">
         <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23F1A3E1-02EC-CC4F-B817-D5D60DC696B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7594E-287F-9F43-AE4E-AF927307DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
   <si>
     <t>WEEK</t>
   </si>
@@ -278,9 +278,6 @@
     <t>project presentation</t>
   </si>
   <si>
-    <t>lab-07 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>project proposal &lt;br&gt; ae</t>
   </si>
   <si>
@@ -428,9 +425,6 @@
     <t>[functions - intro](https://mrne222-sp25.github.io/slides/13-functions-intro/13-functions-intro.html#1)</t>
   </si>
   <si>
-    <t>functions - details</t>
-  </si>
-  <si>
     <t>effective data viz - cont.</t>
   </si>
   <si>
@@ -465,6 +459,18 @@
   </si>
   <si>
     <t>[quiz-05](https://docs.google.com/forms/d/e/1FAIpQLSeXqMNqSDiALwJd3kAqZTK7maTnEeolkusLfbMKs0I68b8gtg/viewform?usp=header)</t>
+  </si>
+  <si>
+    <t>[functions - details](https://mrne222-sp25.github.io/slides/15-functions-details/15-functions-details.html#1)</t>
+  </si>
+  <si>
+    <t>ae-11</t>
+  </si>
+  <si>
+    <t>ae-10 &lt;br&gt; ae-11</t>
+  </si>
+  <si>
+    <t>quiz-06</t>
   </si>
 </sst>
 </file>
@@ -841,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -883,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -894,10 +900,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -905,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,7 +922,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -927,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -941,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -952,10 +958,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,7 +969,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -974,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -991,10 +997,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1002,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1013,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1024,16 +1030,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
         <v>111</v>
-      </c>
-      <c r="E14" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1041,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1049,10 +1055,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1060,7 +1066,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1071,16 +1077,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1088,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
         <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1102,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1110,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1121,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1129,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1140,10 +1146,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1151,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1162,16 +1168,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1179,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,7 +1199,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1201,7 +1210,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1212,10 +1221,13 @@
         <v>25</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1223,7 +1235,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1231,7 +1243,7 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1239,7 +1251,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,7 +1307,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,7 +1336,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1443,7 +1455,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F60" t="s">
         <v>77</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC7594E-287F-9F43-AE4E-AF927307DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364AF08C-642E-E240-8771-4290DC242DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="37680" windowHeight="20600" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,9 +440,6 @@
     <t>lab-06 &lt;br&gt; update and reflect on &lt;br&gt;  ae-06-09 and lab-04</t>
   </si>
   <si>
-    <t>iteration - intro</t>
-  </si>
-  <si>
     <t>iteration - details</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>quiz-06</t>
+  </si>
+  <si>
+    <t>project proposal work: decide on a dataset</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1146,10 +1146,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" t="s">
         <v>136</v>
-      </c>
-      <c r="E24" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1177,7 +1177,7 @@
         <v>126</v>
       </c>
       <c r="F26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" t="s">
         <v>118</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,10 +1199,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" t="s">
         <v>141</v>
-      </c>
-      <c r="E28" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1210,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1224,9 +1224,6 @@
         <v>120</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
-      </c>
-      <c r="F30" t="s">
         <v>144</v>
       </c>
     </row>
@@ -1243,16 +1240,16 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>135</v>
+        <v>134</v>
+      </c>
+      <c r="F32" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="F33" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1300,6 +1297,9 @@
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>33</v>
+      </c>
+      <c r="F39" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364AF08C-642E-E240-8771-4290DC242DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B340648-8073-AB44-A3EF-46EED6D2D4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="37680" windowHeight="20600" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -278,9 +278,6 @@
     <t>project presentation</t>
   </si>
   <si>
-    <t>project proposal &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-08 &lt;br&gt; ae</t>
   </si>
   <si>
@@ -434,43 +431,46 @@
     <t>learning reflection</t>
   </si>
   <si>
-    <t>learning reflection &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>lab-06 &lt;br&gt; update and reflect on &lt;br&gt;  ae-06-09 and lab-04</t>
   </si>
   <si>
+    <t xml:space="preserve">[data recode](https://mrne222-sp25.github.io/slides/11-data-recode/11-data-recode.html#1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">review ae-06-09 and &lt;br&gt; lab-04 solutions </t>
+  </si>
+  <si>
+    <t>[sign up for project group](https://docs.google.com/spreadsheets/d/1T8ynu2KodlkYa7eTG1EsnggARHN7tVt2iQFKIVgDodo/edit?usp=sharing)</t>
+  </si>
+  <si>
+    <t>[git conflicts instructions](https://mrne222-sp25.github.io/slides/lab-07/lab-07-merge-conflicts.html) &lt;br&gt; [project guidelines](https://mrne222-sp25.github.io/website/03-project.html)</t>
+  </si>
+  <si>
+    <t>[quiz-05](https://docs.google.com/forms/d/e/1FAIpQLSeXqMNqSDiALwJd3kAqZTK7maTnEeolkusLfbMKs0I68b8gtg/viewform?usp=header)</t>
+  </si>
+  <si>
+    <t>[functions - details](https://mrne222-sp25.github.io/slides/15-functions-details/15-functions-details.html#1)</t>
+  </si>
+  <si>
+    <t>ae-11</t>
+  </si>
+  <si>
+    <t>ae-10 &lt;br&gt; ae-11</t>
+  </si>
+  <si>
+    <t>project proposal work: decide on a dataset</t>
+  </si>
+  <si>
+    <t>[quiz-06](https://forms.gle/2syEGi8vzBDsSr2n7)</t>
+  </si>
+  <si>
+    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; ae</t>
+  </si>
+  <si>
+    <t>[iteration](https://mrne222-sp25.github.io/slides/16-iteration/16-iteration.html#1)</t>
+  </si>
+  <si>
     <t>iteration - details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[data recode](https://mrne222-sp25.github.io/slides/11-data-recode/11-data-recode.html#1) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">review ae-06-09 and &lt;br&gt; lab-04 solutions </t>
-  </si>
-  <si>
-    <t>[sign up for project group](https://docs.google.com/spreadsheets/d/1T8ynu2KodlkYa7eTG1EsnggARHN7tVt2iQFKIVgDodo/edit?usp=sharing)</t>
-  </si>
-  <si>
-    <t>[git conflicts instructions](https://mrne222-sp25.github.io/slides/lab-07/lab-07-merge-conflicts.html) &lt;br&gt; [project guidelines](https://mrne222-sp25.github.io/website/03-project.html)</t>
-  </si>
-  <si>
-    <t>[quiz-05](https://docs.google.com/forms/d/e/1FAIpQLSeXqMNqSDiALwJd3kAqZTK7maTnEeolkusLfbMKs0I68b8gtg/viewform?usp=header)</t>
-  </si>
-  <si>
-    <t>[functions - details](https://mrne222-sp25.github.io/slides/15-functions-details/15-functions-details.html#1)</t>
-  </si>
-  <si>
-    <t>ae-11</t>
-  </si>
-  <si>
-    <t>ae-10 &lt;br&gt; ae-11</t>
-  </si>
-  <si>
-    <t>quiz-06</t>
-  </si>
-  <si>
-    <t>project proposal work: decide on a dataset</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +872,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -900,10 +900,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,10 +911,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
         <v>87</v>
-      </c>
-      <c r="E4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,7 +922,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -933,13 +933,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -947,10 +947,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -958,10 +958,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,7 +969,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -980,16 +980,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,10 +997,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1008,10 +1008,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,7 +1019,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1030,16 +1030,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" t="s">
         <v>110</v>
-      </c>
-      <c r="E14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F14" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1047,7 +1047,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,10 +1055,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,7 +1066,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1077,16 +1077,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
         <v>122</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,7 +1116,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,10 +1135,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,10 +1146,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1157,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1168,16 +1168,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,10 +1199,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E28" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,21 +1210,18 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="D30" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1232,18 +1229,21 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>27</v>
       </c>
+      <c r="C32" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="F32" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1285,6 +1285,9 @@
       <c r="B37" t="s">
         <v>31</v>
       </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -1298,16 +1301,13 @@
       <c r="B39" t="s">
         <v>33</v>
       </c>
-      <c r="F39" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1336,7 +1336,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,7 +1455,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F60" t="s">
         <v>77</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B340648-8073-AB44-A3EF-46EED6D2D4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68E8B1B-CC95-E741-82B6-34266F0DDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="29120" yWindow="1700" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>WEEK</t>
   </si>
@@ -251,9 +251,6 @@
     <t>spring Break - no lab</t>
   </si>
   <si>
-    <t>project proposal work</t>
-  </si>
-  <si>
     <t>project work</t>
   </si>
   <si>
@@ -470,7 +467,25 @@
     <t>[iteration](https://mrne222-sp25.github.io/slides/16-iteration/16-iteration.html#1)</t>
   </si>
   <si>
-    <t>iteration - details</t>
+    <t>iteration practice</t>
+  </si>
+  <si>
+    <t>linear models</t>
+  </si>
+  <si>
+    <t>project  work</t>
+  </si>
+  <si>
+    <t>[more iteration](https://mrne222-sp25.github.io/slides/17-iteration-mult-figs/17-iteration-mult-figs.html#1)</t>
+  </si>
+  <si>
+    <t>ae-13</t>
+  </si>
+  <si>
+    <t>ae-12</t>
+  </si>
+  <si>
+    <t>[optional resource on map() from Advanced R](https://adv-r.hadley.nz/functionals.html?q=map#map)</t>
   </si>
 </sst>
 </file>
@@ -847,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -872,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -889,7 +904,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -900,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -911,10 +926,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
         <v>86</v>
-      </c>
-      <c r="E4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -922,7 +937,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -933,13 +948,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -947,10 +962,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -958,10 +973,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,7 +984,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -980,16 +995,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,10 +1012,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1008,10 +1023,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1019,7 +1034,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1030,16 +1045,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" t="s">
         <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1047,7 +1062,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1055,10 +1070,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1066,7 +1081,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1077,16 +1092,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1094,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
         <v>121</v>
-      </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
-      <c r="F19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1108,7 +1123,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1116,7 +1131,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1127,7 +1142,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,10 +1150,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1146,10 +1161,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E24" t="s">
         <v>132</v>
-      </c>
-      <c r="E24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1157,7 +1172,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1168,16 +1183,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1185,13 +1200,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,10 +1214,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
         <v>137</v>
-      </c>
-      <c r="E28" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1210,7 +1225,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1221,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1229,7 +1244,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1237,19 +1252,25 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D32" t="s">
-        <v>143</v>
+        <v>142</v>
+      </c>
+      <c r="E32" t="s">
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>65</v>
       </c>
+      <c r="F33" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
@@ -1278,15 +1299,21 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>10</v>
       </c>
       <c r="B37" t="s">
         <v>31</v>
       </c>
+      <c r="C37" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>146</v>
+      </c>
+      <c r="E37" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1294,20 +1321,23 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>33</v>
       </c>
+      <c r="D39" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1317,6 +1347,9 @@
       <c r="B41" t="s">
         <v>34</v>
       </c>
+      <c r="D41" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
@@ -1330,13 +1363,16 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
+      <c r="D43" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1352,7 +1388,7 @@
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1381,7 +1417,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1410,10 +1446,10 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="F54" t="s">
         <v>73</v>
-      </c>
-      <c r="F54" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1478,7 @@
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,10 +1491,10 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1469,10 +1505,10 @@
         <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -1480,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68E8B1B-CC95-E741-82B6-34266F0DDCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F599B-7008-AD48-A54C-533139B05EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29120" yWindow="1700" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
   <si>
     <t>WEEK</t>
   </si>
@@ -275,9 +275,6 @@
     <t>project presentation</t>
   </si>
   <si>
-    <t>lab-08 &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>[welcome](https://mrne222-sp25.github.io/slides/01-welcome/01-welcome.html#/title-slide)</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
     <t>[quiz-06](https://forms.gle/2syEGi8vzBDsSr2n7)</t>
   </si>
   <si>
-    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; ae</t>
-  </si>
-  <si>
     <t>[iteration](https://mrne222-sp25.github.io/slides/16-iteration/16-iteration.html#1)</t>
   </si>
   <si>
@@ -486,6 +480,15 @@
   </si>
   <si>
     <t>[optional resource on map() from Advanced R](https://adv-r.hadley.nz/functionals.html?q=map#map)</t>
+  </si>
+  <si>
+    <t>learning reflection (clone from GitHub) &lt;br&gt; project proposal &lt;br&gt; ae 13</t>
+  </si>
+  <si>
+    <t>ae-14</t>
+  </si>
+  <si>
+    <t>lab-08 &lt;br&gt; ae-14 &lt;br&gt; ae…</t>
   </si>
 </sst>
 </file>
@@ -862,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -887,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -904,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -915,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -926,10 +929,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
-      </c>
-      <c r="E4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -937,7 +940,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -948,13 +951,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -962,10 +965,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -973,10 +976,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -984,7 +987,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -995,16 +998,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1012,10 +1015,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1023,10 +1026,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1034,7 +1037,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1045,16 +1048,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>105</v>
+      </c>
+      <c r="F14" t="s">
         <v>108</v>
-      </c>
-      <c r="E14" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1062,7 +1065,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1070,10 +1073,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1081,7 +1084,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1092,16 +1095,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1109,13 +1112,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" t="s">
         <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1123,7 +1126,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1131,7 +1134,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1150,10 +1153,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1161,10 +1164,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1172,7 +1175,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1183,16 +1186,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1200,13 +1203,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1214,10 +1217,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" t="s">
         <v>136</v>
-      </c>
-      <c r="E28" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1225,7 +1228,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,7 +1239,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1244,7 +1247,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1252,16 +1255,16 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,7 +1272,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1307,13 +1310,13 @@
         <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E37" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,7 +1324,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,7 +1332,10 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,7 +1343,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,7 +1354,7 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1364,7 +1370,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1372,7 +1378,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1491,7 +1497,7 @@
         <v>61</v>
       </c>
       <c r="E60" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F60" t="s">
         <v>76</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717F599B-7008-AD48-A54C-533139B05EC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ACE90B-CDF5-4F45-9A57-D20F7FDBE04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30920" yWindow="1020" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
   <si>
     <t>WEEK</t>
   </si>
@@ -464,9 +464,6 @@
     <t>iteration practice</t>
   </si>
   <si>
-    <t>linear models</t>
-  </si>
-  <si>
     <t>project  work</t>
   </si>
   <si>
@@ -489,6 +486,15 @@
   </si>
   <si>
     <t>lab-08 &lt;br&gt; ae-14 &lt;br&gt; ae…</t>
+  </si>
+  <si>
+    <t>ae-15</t>
+  </si>
+  <si>
+    <t>fitting and interpreting models</t>
+  </si>
+  <si>
+    <t>[language of models](https://mrne222-sp25.github.io/slides/18-language-of-models/18-language-of-models.html#1)</t>
   </si>
 </sst>
 </file>
@@ -865,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1261,7 +1267,7 @@
         <v>140</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" t="s">
         <v>139</v>
@@ -1272,7 +1278,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1310,13 +1316,13 @@
         <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" t="s">
         <v>144</v>
-      </c>
-      <c r="E37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1324,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1335,7 +1341,7 @@
         <v>141</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1343,7 +1349,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,7 +1360,10 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>142</v>
+        <v>152</v>
+      </c>
+      <c r="E41" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1370,7 +1379,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1378,7 +1387,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4ACE90B-CDF5-4F45-9A57-D20F7FDBE04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E826DE-9C9C-E048-8083-BD25BD1842FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30920" yWindow="1020" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
   <si>
     <t>WEEK</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>[language of models](https://mrne222-sp25.github.io/slides/18-language-of-models/18-language-of-models.html#1)</t>
+  </si>
+  <si>
+    <t>model checking and nonlinearity</t>
+  </si>
+  <si>
+    <t>models with multiple predictors</t>
+  </si>
+  <si>
+    <t>models with multiple predictors (cont)</t>
   </si>
 </sst>
 </file>
@@ -871,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1371,7 +1380,7 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1397,19 +1406,25 @@
       <c r="B45" t="s">
         <v>37</v>
       </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="D46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
         <v>39</v>
       </c>
+      <c r="D47" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
@@ -1425,6 +1440,9 @@
       </c>
       <c r="B49" t="s">
         <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E826DE-9C9C-E048-8083-BD25BD1842FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE332EA8-3F59-4E4F-A839-22891F34E2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30920" yWindow="1020" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -485,15 +485,9 @@
     <t>ae-14</t>
   </si>
   <si>
-    <t>lab-08 &lt;br&gt; ae-14 &lt;br&gt; ae…</t>
-  </si>
-  <si>
     <t>ae-15</t>
   </si>
   <si>
-    <t>fitting and interpreting models</t>
-  </si>
-  <si>
     <t>[language of models](https://mrne222-sp25.github.io/slides/18-language-of-models/18-language-of-models.html#1)</t>
   </si>
   <si>
@@ -504,6 +498,12 @@
   </si>
   <si>
     <t>models with multiple predictors (cont)</t>
+  </si>
+  <si>
+    <t>[fitting and interpreting models](https://enst222.github.io/slides/19-fitting-interpreting-models/19-fitting-interpreting-models#1)</t>
+  </si>
+  <si>
+    <t>lab-08 &lt;br&gt; ae-14 &lt;br&gt; a-15</t>
   </si>
 </sst>
 </file>
@@ -880,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,10 +1369,10 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1388,7 +1388,7 @@
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1396,7 +1396,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1423,7 +1423,7 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE332EA8-3F59-4E4F-A839-22891F34E2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF33B01-B1DB-3A4B-BCDF-5D2BD7838C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30920" yWindow="1020" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>WEEK</t>
   </si>
@@ -491,19 +491,25 @@
     <t>[language of models](https://mrne222-sp25.github.io/slides/18-language-of-models/18-language-of-models.html#1)</t>
   </si>
   <si>
-    <t>model checking and nonlinearity</t>
-  </si>
-  <si>
-    <t>models with multiple predictors</t>
-  </si>
-  <si>
-    <t>models with multiple predictors (cont)</t>
-  </si>
-  <si>
     <t>[fitting and interpreting models](https://enst222.github.io/slides/19-fitting-interpreting-models/19-fitting-interpreting-models#1)</t>
   </si>
   <si>
-    <t>lab-08 &lt;br&gt; ae-14 &lt;br&gt; a-15</t>
+    <t>ae-16</t>
+  </si>
+  <si>
+    <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
+  </si>
+  <si>
+    <t>[models with multiple predictors](https://enst222.github.io/slides/21-model-multiple-predictors/21-model-multiple-predictors#1)</t>
+  </si>
+  <si>
+    <t>more models with multiple predictors</t>
+  </si>
+  <si>
+    <t>ae-14 &lt;br&gt; a-15</t>
+  </si>
+  <si>
+    <t>lab-08 &lt;br&gt; ae-16 &lt;br&gt; ae-17</t>
   </si>
 </sst>
 </file>
@@ -880,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,16 +1393,13 @@
       <c r="B43" t="s">
         <v>36</v>
       </c>
-      <c r="D43" t="s">
-        <v>154</v>
-      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1409,6 +1412,9 @@
       <c r="D45" t="s">
         <v>151</v>
       </c>
+      <c r="E45" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
@@ -1423,7 +1429,7 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1431,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>68</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1442,7 +1448,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1456,6 +1462,9 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>42</v>
+      </c>
+      <c r="D51" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF33B01-B1DB-3A4B-BCDF-5D2BD7838C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F57A15-B1E1-0448-B1E7-68B3200F62F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30920" yWindow="1020" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="30100" yWindow="880" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
   <si>
     <t>WEEK</t>
   </si>
@@ -497,19 +497,28 @@
     <t>ae-16</t>
   </si>
   <si>
-    <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
-  </si>
-  <si>
     <t>[models with multiple predictors](https://enst222.github.io/slides/21-model-multiple-predictors/21-model-multiple-predictors#1)</t>
   </si>
   <si>
-    <t>more models with multiple predictors</t>
-  </si>
-  <si>
     <t>ae-14 &lt;br&gt; a-15</t>
   </si>
   <si>
-    <t>lab-08 &lt;br&gt; ae-16 &lt;br&gt; ae-17</t>
+    <t xml:space="preserve">lab-08 &lt;br&gt; ae-16 </t>
+  </si>
+  <si>
+    <t>ae-17</t>
+  </si>
+  <si>
+    <t>No class - advising day</t>
+  </si>
+  <si>
+    <t>No class - CG out sick</t>
+  </si>
+  <si>
+    <t>linear model roundup</t>
+  </si>
+  <si>
+    <t>spatial stuff, pretty quarto, project work</t>
   </si>
 </sst>
 </file>
@@ -886,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1399,7 +1408,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1429,7 +1438,7 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1437,7 +1446,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1448,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1456,7 +1465,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>71</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1464,7 +1473,10 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+      <c r="E51" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1472,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1481,6 +1493,9 @@
       </c>
       <c r="B53" t="s">
         <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F57A15-B1E1-0448-B1E7-68B3200F62F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E6DDD-E78E-EF45-8EE6-E94D0B401F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30100" yWindow="880" windowWidth="33260" windowHeight="18680" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="37020" yWindow="500" windowWidth="30060" windowHeight="18460" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
   <si>
     <t>WEEK</t>
   </si>
@@ -239,12 +239,6 @@
     <t>lab-08</t>
   </si>
   <si>
-    <t>Apr 28-May2</t>
-  </si>
-  <si>
-    <t>ae</t>
-  </si>
-  <si>
     <t>spring Break - no class</t>
   </si>
   <si>
@@ -260,21 +254,6 @@
     <t>project draft for peer review</t>
   </si>
   <si>
-    <t>individual meetings</t>
-  </si>
-  <si>
-    <t>2:00-4:15 final presentations</t>
-  </si>
-  <si>
-    <t>final revised proejct, ae</t>
-  </si>
-  <si>
-    <t>sign up for an individual meeting</t>
-  </si>
-  <si>
-    <t>project presentation</t>
-  </si>
-  <si>
     <t>[welcome](https://mrne222-sp25.github.io/slides/01-welcome/01-welcome.html#/title-slide)</t>
   </si>
   <si>
@@ -422,9 +401,6 @@
     <t xml:space="preserve">project proposal work </t>
   </si>
   <si>
-    <t>learning reflection</t>
-  </si>
-  <si>
     <t>lab-06 &lt;br&gt; update and reflect on &lt;br&gt;  ae-06-09 and lab-04</t>
   </si>
   <si>
@@ -515,10 +491,34 @@
     <t>No class - CG out sick</t>
   </si>
   <si>
-    <t>linear model roundup</t>
-  </si>
-  <si>
-    <t>spatial stuff, pretty quarto, project work</t>
+    <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
+  </si>
+  <si>
+    <t>2:00-4:15 (final exam period) Project review panel</t>
+  </si>
+  <si>
+    <t>final learning reflection</t>
+  </si>
+  <si>
+    <t>tying up loose ends; project work</t>
+  </si>
+  <si>
+    <t>ae-18</t>
+  </si>
+  <si>
+    <t>ae-19</t>
+  </si>
+  <si>
+    <t>ae-20</t>
+  </si>
+  <si>
+    <t>final revised proejct &lt;br&gt;ae-19 &lt;br&gt; ae-20</t>
+  </si>
+  <si>
+    <t>spatial data: make a map (ae-20)</t>
+  </si>
+  <si>
+    <t>spatial data: code-along (ae-19)</t>
   </si>
 </sst>
 </file>
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E1" t="s">
         <v>62</v>
@@ -937,7 +937,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E2" t="s">
         <v>63</v>
@@ -948,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -959,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -970,7 +970,7 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -981,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" t="s">
         <v>83</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -995,10 +995,10 @@
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1006,10 +1006,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,7 +1017,7 @@
         <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1028,16 +1028,16 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -1045,10 +1045,10 @@
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1056,10 +1056,10 @@
         <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
         <v>97</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1078,16 +1078,16 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
         <v>100</v>
       </c>
-      <c r="D14" t="s">
-        <v>107</v>
-      </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -1095,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -1103,10 +1103,10 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1114,7 +1114,7 @@
         <v>53</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="68" x14ac:dyDescent="0.2">
@@ -1125,16 +1125,16 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1142,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" t="s">
         <v>113</v>
-      </c>
-      <c r="F19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1156,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,7 +1164,7 @@
         <v>54</v>
       </c>
       <c r="F21" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1175,7 +1175,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1183,10 +1183,10 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1194,10 +1194,10 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1205,7 +1205,7 @@
         <v>55</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1216,16 +1216,16 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" t="s">
         <v>116</v>
       </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1233,13 +1233,13 @@
         <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="F27" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,10 +1247,10 @@
         <v>24</v>
       </c>
       <c r="D28" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E28" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1258,7 +1258,7 @@
         <v>64</v>
       </c>
       <c r="F29" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1269,7 +1269,7 @@
         <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1277,7 +1277,7 @@
         <v>26</v>
       </c>
       <c r="D31" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -1285,16 +1285,16 @@
         <v>27</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E32" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F32" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1302,7 +1302,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1313,7 +1313,7 @@
         <v>28</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1321,7 +1321,7 @@
         <v>29</v>
       </c>
       <c r="D35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1329,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -1340,13 +1340,13 @@
         <v>31</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D37" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E37" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1354,7 +1354,7 @@
         <v>32</v>
       </c>
       <c r="D38" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1362,10 +1362,10 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,7 +1373,7 @@
         <v>56</v>
       </c>
       <c r="F40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1384,10 +1384,10 @@
         <v>34</v>
       </c>
       <c r="D41" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E41" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1395,7 +1395,7 @@
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1408,7 +1408,7 @@
         <v>57</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1419,10 +1419,10 @@
         <v>37</v>
       </c>
       <c r="D45" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1438,7 +1438,7 @@
         <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1446,7 +1446,7 @@
         <v>58</v>
       </c>
       <c r="F48" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1457,7 +1457,7 @@
         <v>40</v>
       </c>
       <c r="D49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,7 +1465,7 @@
         <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>160</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1473,10 +1473,10 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1484,7 +1484,7 @@
         <v>59</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -1495,7 +1495,10 @@
         <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>159</v>
+        <v>145</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1503,23 +1506,26 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>45</v>
       </c>
+      <c r="D55" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>68</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1529,29 +1535,38 @@
       <c r="B57" t="s">
         <v>46</v>
       </c>
+      <c r="D57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>47</v>
       </c>
       <c r="D58" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>48</v>
       </c>
+      <c r="D59" t="s">
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>61</v>
       </c>
-      <c r="E60" t="s">
-        <v>128</v>
-      </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1559,24 +1574,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>75</v>
-      </c>
-      <c r="F62" t="s">
-        <v>78</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E6DDD-E78E-EF45-8EE6-E94D0B401F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1E29A-5B8A-9240-AF11-04620CF9AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37020" yWindow="500" windowWidth="30060" windowHeight="18460" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -491,9 +491,6 @@
     <t>No class - CG out sick</t>
   </si>
   <si>
-    <t>[model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
-  </si>
-  <si>
     <t>2:00-4:15 (final exam period) Project review panel</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t>spatial data: code-along (ae-19)</t>
+  </si>
+  <si>
+    <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
 </sst>
 </file>
@@ -895,8 +895,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
         <v>148</v>
@@ -1498,7 +1498,7 @@
         <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1517,7 +1517,7 @@
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1525,7 +1525,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1536,10 +1536,10 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,10 +1555,10 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,7 +1566,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1577,10 +1577,10 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
+        <v>151</v>
+      </c>
+      <c r="F61" t="s">
         <v>152</v>
-      </c>
-      <c r="F61" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4B1E29A-5B8A-9240-AF11-04620CF9AFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E20C3-9A7C-6B4C-95F1-8E38A83EDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="162">
   <si>
     <t>WEEK</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
+  </si>
+  <si>
+    <t>ae-17, ae-18</t>
   </si>
 </sst>
 </file>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1475,17 +1478,11 @@
       <c r="D51" t="s">
         <v>160</v>
       </c>
-      <c r="E51" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>59</v>
       </c>
-      <c r="F52" t="s">
-        <v>148</v>
-      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
@@ -1498,7 +1495,7 @@
         <v>145</v>
       </c>
       <c r="E53" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1519,13 +1516,16 @@
       <c r="D55" t="s">
         <v>153</v>
       </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{643E20C3-9A7C-6B4C-95F1-8E38A83EDE56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AEFF6E-DCEA-F740-B8D6-2947B65D7800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
   <si>
     <t>WEEK</t>
   </si>
@@ -497,31 +497,25 @@
     <t>final learning reflection</t>
   </si>
   <si>
-    <t>tying up loose ends; project work</t>
-  </si>
-  <si>
     <t>ae-18</t>
   </si>
   <si>
     <t>ae-19</t>
   </si>
   <si>
-    <t>ae-20</t>
-  </si>
-  <si>
-    <t>final revised proejct &lt;br&gt;ae-19 &lt;br&gt; ae-20</t>
-  </si>
-  <si>
-    <t>spatial data: make a map (ae-20)</t>
-  </si>
-  <si>
-    <t>spatial data: code-along (ae-19)</t>
-  </si>
-  <si>
     <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
-    <t>ae-17, ae-18</t>
+    <t xml:space="preserve">final revised proejct &lt;br&gt;ae-19 </t>
+  </si>
+  <si>
+    <t>no lab - CG out sick</t>
+  </si>
+  <si>
+    <t>tying up loose ends</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spatial data: make a map </t>
   </si>
 </sst>
 </file>
@@ -898,8 +892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1476,7 +1470,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1503,7 +1497,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="F54" t="s">
         <v>71</v>
@@ -1514,10 +1508,7 @@
         <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
-      </c>
-      <c r="E55" t="s">
-        <v>154</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -1525,7 +1516,7 @@
         <v>60</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -1536,10 +1527,10 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1566,7 +1557,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AEFF6E-DCEA-F740-B8D6-2947B65D7800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58EB32-31B5-DC43-8F4F-A30EF61701C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
   <si>
     <t>WEEK</t>
   </si>
@@ -497,25 +497,22 @@
     <t>final learning reflection</t>
   </si>
   <si>
-    <t>ae-18</t>
-  </si>
-  <si>
-    <t>ae-19</t>
-  </si>
-  <si>
     <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
-    <t xml:space="preserve">final revised proejct &lt;br&gt;ae-19 </t>
-  </si>
-  <si>
     <t>no lab - CG out sick</t>
   </si>
   <si>
-    <t>tying up loose ends</t>
-  </si>
-  <si>
     <t xml:space="preserve">spatial data: make a map </t>
+  </si>
+  <si>
+    <t>[tying up loose ends](https://enst222.github.io/slides/23-tying-up-loose-ends/23-tying-up-loose-ends#1)</t>
+  </si>
+  <si>
+    <t>final revised proejct &lt;br&gt;ae optional</t>
+  </si>
+  <si>
+    <t>ae-18, ae-19&lt;br&gt;both optional</t>
   </si>
 </sst>
 </file>
@@ -892,7 +889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C43" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
@@ -1470,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1497,7 +1494,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F54" t="s">
         <v>71</v>
@@ -1527,10 +1524,7 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>158</v>
-      </c>
-      <c r="E57" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,10 +1540,10 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E59" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1557,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D58EB32-31B5-DC43-8F4F-A30EF61701C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3332DF-EB36-6B4A-A703-35B9D3DC4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -494,9 +494,6 @@
     <t>2:00-4:15 (final exam period) Project review panel</t>
   </si>
   <si>
-    <t>final learning reflection</t>
-  </si>
-  <si>
     <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
@@ -509,10 +506,13 @@
     <t>[tying up loose ends](https://enst222.github.io/slides/23-tying-up-loose-ends/23-tying-up-loose-ends#1)</t>
   </si>
   <si>
-    <t>final revised proejct &lt;br&gt;ae optional</t>
-  </si>
-  <si>
     <t>ae-18, ae-19&lt;br&gt;both optional</t>
+  </si>
+  <si>
+    <t>ae optional</t>
+  </si>
+  <si>
+    <t>final project &lt;br&gt; final learning reflection</t>
   </si>
 </sst>
 </file>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1467,7 +1467,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1494,7 +1494,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F54" t="s">
         <v>71</v>
@@ -1524,7 +1524,7 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1540,10 +1540,10 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3332DF-EB36-6B4A-A703-35B9D3DC4BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA65A7B-FDE0-9740-85F0-452E00DB24CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -506,13 +506,13 @@
     <t>[tying up loose ends](https://enst222.github.io/slides/23-tying-up-loose-ends/23-tying-up-loose-ends#1)</t>
   </si>
   <si>
-    <t>ae-18, ae-19&lt;br&gt;both optional</t>
-  </si>
-  <si>
     <t>ae optional</t>
   </si>
   <si>
     <t>final project &lt;br&gt; final learning reflection</t>
+  </si>
+  <si>
+    <t>ae-19, ae-20&lt;br&gt;both optional</t>
   </si>
 </sst>
 </file>
@@ -889,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1543,7 @@
         <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1551,7 +1551,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,7 +1565,7 @@
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA65A7B-FDE0-9740-85F0-452E00DB24CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0409034-AB57-8040-9E61-C85A36DFB89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
   <si>
     <t>WEEK</t>
   </si>
@@ -509,10 +509,16 @@
     <t>ae optional</t>
   </si>
   <si>
-    <t>final project &lt;br&gt; final learning reflection</t>
-  </si>
-  <si>
     <t>ae-19, ae-20&lt;br&gt;both optional</t>
+  </si>
+  <si>
+    <t>M May 5</t>
+  </si>
+  <si>
+    <t>final project</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> final learning reflection</t>
   </si>
 </sst>
 </file>
@@ -887,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA2A9EF-AA31-554C-9B9C-A68FEC593FBF}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C39" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1543,7 +1549,7 @@
         <v>154</v>
       </c>
       <c r="E59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,7 +1571,15 @@
         <v>151</v>
       </c>
       <c r="F61" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="F62" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cbgurbisz/Documents/Teaching/MRNE222-sp25/website/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0409034-AB57-8040-9E61-C85A36DFB89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197D8447-E5A0-FF45-81EA-A6BF263C875F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{C5F9D553-35B7-894D-9EDC-9F93DB09BC6D}"/>
   </bookViews>
@@ -491,9 +491,6 @@
     <t>No class - CG out sick</t>
   </si>
   <si>
-    <t>2:00-4:15 (final exam period) Project review panel</t>
-  </si>
-  <si>
     <t>review [lab-08 solutions](https://github.com/MRNE222-sp25-activities/lab-08/blob/main/lab-08-solutions.md) &lt;br&gt; [model checking and nonlinearity](https://enst222.github.io/slides/20-modeling-nonlinear-relationships/20-modeling-nonlinear-relationships#1)</t>
   </si>
   <si>
@@ -519,6 +516,9 @@
   </si>
   <si>
     <t xml:space="preserve"> final learning reflection</t>
+  </si>
+  <si>
+    <t>2:00-4:15 (final exam period) [Project review panel](https://docs.google.com/spreadsheets/d/1sOsSmirVyEtzoimN0hAnRj5oGKDhhY_Y1c1nvY7owSs/edit?usp=sharing)</t>
   </si>
 </sst>
 </file>
@@ -896,7 +896,7 @@
   <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1473,7 +1473,7 @@
         <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -1500,7 +1500,7 @@
         <v>44</v>
       </c>
       <c r="D54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F54" t="s">
         <v>71</v>
@@ -1530,7 +1530,7 @@
         <v>46</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -1546,10 +1546,10 @@
         <v>48</v>
       </c>
       <c r="D59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -1557,7 +1557,7 @@
         <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -1568,18 +1568,18 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="F61" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
